--- a/Helium.xlsx
+++ b/Helium.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-03-21</t>
+          <t>2021-03-28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.83359752</v>
+        <v>17.77569915</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07043346242677824</v>
+        <v>0.06998306751968504</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +643,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-03-21</t>
+          <t>2021-03-28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.41062078</v>
+        <v>13.72316685</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06463864989583333</v>
+        <v>0.06442801338028169</v>
       </c>
     </row>
   </sheetData>

--- a/Helium.xlsx
+++ b/Helium.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,6 +44,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -60,21 +69,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Währung" xfId="2" builtinId="4"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -90,9 +130,6 @@
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,14 +205,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="G1:J2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="G1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle2" displayName="Tabelle2" ref="A2:D5" headerRowCount="1" totalsRowCount="1">
+  <autoFilter ref="A2:D4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="1"/>
-    <tableColumn id="2" name="HNT"/>
-    <tableColumn id="3" name="€/HNT"/>
-    <tableColumn id="4" name="Total">
-      <calculatedColumnFormula>H2*I2</calculatedColumnFormula>
+    <tableColumn id="1" name="Router" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="2" name="Balance" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>'bumpy-cyan-nuthatch'!B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Ausstehend" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="1">
+      <calculatedColumnFormula>'bumpy-cyan-nuthatch'!E4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Total" totalsRowFunction="sum" dataDxfId="2">
+      <calculatedColumnFormula>B3-C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle1" displayName="Tabelle1" ref="G7:J10" headerRowCount="1" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="G7:J9"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Date" totalsRowLabel="Ergebnis" dataDxfId="7"/>
+    <tableColumn id="2" name="HNT" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="€/HNT" totalsRowFunction="average" totalsRowDxfId="6" dataCellStyle="Währung"/>
+    <tableColumn id="4" name="Total" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Währung">
+      <calculatedColumnFormula>H8*I8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -444,20 +500,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col width="18.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13.109375" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Router</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ausstehend</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>unique-seaweed-yak</t>
+        </is>
+      </c>
+      <c r="B3" s="6">
+        <f>'unique-seaweed-yak'!B5</f>
+        <v/>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f>B3-C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bumpy-cyan-nuthatch</t>
+        </is>
+      </c>
+      <c r="B4" s="6">
+        <f>'bumpy-cyan-nuthatch'!B5</f>
+        <v/>
+      </c>
+      <c r="C4" s="6">
+        <f>'bumpy-cyan-nuthatch'!E5</f>
+        <v/>
+      </c>
+      <c r="D4" s="6">
+        <f>B4-C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ergebnis</t>
+        </is>
+      </c>
+      <c r="B5" s="6">
+        <f>SUBTOTAL(109,Tabelle2[Balance])</f>
+        <v/>
+      </c>
+      <c r="C5" s="6">
+        <f>SUBTOTAL(109,Tabelle2[Ausstehend])</f>
+        <v/>
+      </c>
+      <c r="D5" s="6">
+        <f>SUBTOTAL(109,Tabelle2[Total])</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -467,36 +610,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>HNT</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>€/HNT</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -518,19 +639,6 @@
           <t>Link</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>44269</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J2">
-        <f>H2*I2</f>
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -540,7 +648,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-03-28</t>
+          <t>2021-03-29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -561,7 +669,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.77569915</v>
+        <v>17.94302053</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +679,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06998306751968504</v>
+        <v>0.06981720050583658</v>
       </c>
     </row>
   </sheetData>
@@ -589,9 +697,6 @@
     <firstHeader/>
     <firstFooter>&amp;LFrei verwendbar</firstFooter>
   </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -601,17 +706,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
-      <c r="J1" s="1" t="n"/>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -633,7 +735,16 @@
           <t>Link</t>
         </is>
       </c>
-      <c r="J2" s="1" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Host:</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Niklas Hunka</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -643,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-03-28</t>
+          <t>2021-03-29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -654,6 +765,16 @@
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Link</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Paypal:</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>n.hunka@gmx.de</t>
         </is>
       </c>
     </row>
@@ -664,7 +785,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.72316685</v>
+        <v>13.94983112</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ausstehend:</t>
+        </is>
+      </c>
+      <c r="E5" s="6">
+        <f>B5/2-Tabelle1[[#Totals],[HNT]]</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -674,14 +804,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06442801338028169</v>
+        <v>0.06428493603686636</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>HNT</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>€/HNT</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" s="2" t="n">
+        <v>44269</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J8" s="7">
+        <f>H8*I8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" s="2" t="n">
+        <v>44283</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="J9" s="7">
+        <f>H9*I9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ergebnis</t>
+        </is>
+      </c>
+      <c r="H10">
+        <f>SUBTOTAL(109,Tabelle1[HNT])</f>
+        <v/>
+      </c>
+      <c r="I10" s="8">
+        <f>SUBTOTAL(101,Tabelle1[€/HNT])</f>
+        <v/>
+      </c>
+      <c r="J10" s="8">
+        <f>SUBTOTAL(109,Tabelle1[Total])</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="H3" display="mailto:n.hunka@gmx.de" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="360" verticalDpi="360"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>